--- a/SCL_Sim_Inputs.xlsx
+++ b/SCL_Sim_Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madison\Documents\GitHub\HPWHulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DE801-3363-4118-8379-F56CD04E9503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6A4C8-F074-4550-BB59-F6D5DE5063B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20600" xr2:uid="{DBF011C6-D519-42CE-B99B-B865F722A1D5}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>market_peakRed_24.0</t>
   </si>
   <si>
-    <t>N, N, N, N, N, N, N, N, N, N, N, N, L, L, L, L, S, S, S, S, N, N, N, N</t>
-  </si>
-  <si>
     <t>market_peakRed_23.0</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>lowIncome_peakRed_16.0</t>
+  </si>
+  <si>
+    <t>N, N, N, N, N, N, N, N, N, N, L, L, L, L, L, L, S, S, S, S, N, N, N, N</t>
   </si>
 </sst>
 </file>
@@ -665,15 +665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63D5626-2FB8-4154-A8B9-0FF9DADC0F94}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>108</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>108</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>117</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>117</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>135</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>144</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>153</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>171</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>180</v>
@@ -1307,13 +1307,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>198</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>216</v>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>234</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>252</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>288</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>108</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D45">
         <v>117</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>117</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <v>126</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <v>135</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>144</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>144</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>153</v>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>162</v>

--- a/SCL_Sim_Inputs.xlsx
+++ b/SCL_Sim_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madison\Documents\GitHub\HPWHulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6A4C8-F074-4550-BB59-F6D5DE5063B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE5781-EB4B-4A97-95F9-AD7B83651A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20600" xr2:uid="{DBF011C6-D519-42CE-B99B-B865F722A1D5}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBF011C6-D519-42CE-B99B-B865F722A1D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="340">
   <si>
     <t>usage_curve</t>
   </si>
@@ -116,166 +116,946 @@
     <t>Required: Capacity of HPWH when under load up operation in kBTU/hr.</t>
   </si>
   <si>
-    <t>market_3hr_24.0</t>
-  </si>
-  <si>
     <t>54.71, 21.88, 10.94, 10.94, 10.94, 32.83, 273.56, 547.11, 361.09, 295.44, 76.6, 87.54, 76.6, 87.54, 43.77, 21.88, 32.83, 131.31, 196.96, 262.61, 317.33, 328.27, 229.79, 87.54</t>
   </si>
   <si>
     <t>N, N, N, N, L, L, S, S, S, N, L, L, L, L, L, L, L, S, S, S, N, N, N, N</t>
   </si>
   <si>
-    <t>market_3hr_23.0</t>
-  </si>
-  <si>
-    <t>market_3hr_22.0</t>
-  </si>
-  <si>
-    <t>market_3hr_21.0</t>
-  </si>
-  <si>
-    <t>market_3hr_20.0</t>
-  </si>
-  <si>
-    <t>market_3hr_19.0</t>
-  </si>
-  <si>
-    <t>market_3hr_18.0</t>
-  </si>
-  <si>
-    <t>market_3hr_17.0</t>
-  </si>
-  <si>
-    <t>market_3hr_16.0</t>
-  </si>
-  <si>
-    <t>market_3hr_15.0</t>
-  </si>
-  <si>
-    <t>market_3hr_14.0</t>
-  </si>
-  <si>
-    <t>market_3hr_13.0</t>
-  </si>
-  <si>
-    <t>market_3hr_12.0</t>
-  </si>
-  <si>
-    <t>market_3hr_11.0</t>
-  </si>
-  <si>
-    <t>market_3hr_10.0</t>
-  </si>
-  <si>
-    <t>market_3hr_9.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_24.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_23.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_22.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_21.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_20.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_19.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_18.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_17.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_16.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_15.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_14.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_13.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_12.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_11.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_10.0</t>
-  </si>
-  <si>
-    <t>market_peakRed_9.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_24.0</t>
-  </si>
-  <si>
     <t>147.3, 147.89, 46.4, 108.41, 67.61, 88.82, 142.0, 77.33, 150.69, 194.44, 299.46, 204.01, 221.98, 266.91, 170.57, 84.7, 205.34, 104.14, 147.15, 127.71, 204.75, 85.87, 119.46, 187.07</t>
   </si>
   <si>
-    <t>lowIncome_3hr_23.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_22.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_21.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_20.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_19.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_18.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_17.0</t>
-  </si>
-  <si>
-    <t>lowIncome_3hr_16.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_24.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_23.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_22.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_21.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_20.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_19.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_18.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_17.0</t>
-  </si>
-  <si>
-    <t>lowIncome_peakRed_16.0</t>
-  </si>
-  <si>
     <t>N, N, N, N, N, N, N, N, N, N, L, L, L, L, L, L, S, S, S, S, N, N, N, N</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_25.0</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_22.5</t>
+  </si>
+  <si>
+    <t>49.24, 19.7, 9.85, 9.85, 9.85, 29.54, 246.2, 492.4, 324.98, 265.9, 68.94, 78.78, 68.94, 78.78, 39.39, 19.7, 29.54, 118.18, 177.26, 236.35, 285.59, 295.44, 206.81, 78.78</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_22.5</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_20.0</t>
+  </si>
+  <si>
+    <t>43.77, 17.51, 8.75, 8.75, 8.75, 26.26, 218.84, 437.69, 288.88, 236.35, 61.28, 70.03, 61.28, 70.03, 35.02, 17.51, 26.26, 105.05, 157.57, 210.09, 253.86, 262.61, 183.83, 70.03</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_20.0</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_17.5</t>
+  </si>
+  <si>
+    <t>38.3, 15.32, 7.66, 7.66, 7.66, 22.98, 191.49, 382.98, 252.77, 206.81, 53.62, 61.28, 53.62, 61.28, 30.64, 15.32, 22.98, 91.91, 137.87, 183.83, 222.13, 229.79, 160.85, 61.28</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_17.5</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_15.0</t>
+  </si>
+  <si>
+    <t>32.83, 13.13, 6.57, 6.57, 6.57, 19.7, 164.13, 328.27, 216.66, 177.26, 45.96, 52.52, 45.96, 52.52, 26.26, 13.13, 19.7, 78.78, 118.18, 157.57, 190.4, 196.96, 137.87, 52.52</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_15.0</t>
+  </si>
+  <si>
+    <t>market_3hr_24.0_12.5</t>
+  </si>
+  <si>
+    <t>27.36, 10.94, 5.47, 5.47, 5.47, 16.41, 136.78, 273.56, 180.55, 147.72, 38.3, 43.77, 38.3, 43.77, 21.88, 10.94, 16.41, 65.65, 98.48, 131.31, 158.66, 164.13, 114.89, 43.77</t>
+  </si>
+  <si>
+    <t>market_3hr_23.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_22.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_21.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_20.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_19.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_18.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_17.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_16.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_15.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_14.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_13.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_12.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_11.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_10.0_12.5</t>
+  </si>
+  <si>
+    <t>market_3hr_9.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_25.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_22.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_20.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_17.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_15.0</t>
+  </si>
+  <si>
+    <t>market_peakRed_24.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_23.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_22.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_21.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_20.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_19.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_18.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_17.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_16.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_15.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_14.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_13.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_12.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_11.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_10.0_12.5</t>
+  </si>
+  <si>
+    <t>market_peakRed_9.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_22.5</t>
+  </si>
+  <si>
+    <t>132.57, 133.1, 41.76, 97.57, 60.85, 79.94, 127.8, 69.6, 135.62, 174.99, 269.51, 183.61, 199.78, 240.22, 153.51, 76.23, 184.8, 93.73, 132.44, 114.94, 184.27, 77.29, 107.51, 168.36</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_20.0</t>
+  </si>
+  <si>
+    <t>117.84, 118.31, 37.12, 86.73, 54.09, 71.06, 113.6, 61.87, 120.55, 155.55, 239.57, 163.21, 177.58, 213.53, 136.46, 67.76, 164.27, 83.31, 117.72, 102.17, 163.8, 68.7, 95.57, 149.66</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_17.5</t>
+  </si>
+  <si>
+    <t>103.11, 103.52, 32.48, 75.89, 47.33, 62.18, 99.4, 54.13, 105.48, 136.11, 209.62, 142.81, 155.39, 186.84, 119.4, 59.29, 143.74, 72.9, 103.01, 89.4, 143.32, 60.11, 83.62, 130.95</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_15.0</t>
+  </si>
+  <si>
+    <t>88.38, 88.73, 27.84, 65.05, 40.57, 53.29, 85.2, 46.4, 90.41, 116.66, 179.68, 122.41, 133.19, 160.14, 102.34, 50.82, 123.2, 62.48, 88.29, 76.63, 122.85, 51.52, 71.68, 112.24</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_24.0_12.5</t>
+  </si>
+  <si>
+    <t>73.65, 73.94, 23.2, 54.21, 33.81, 44.41, 71.0, 38.67, 75.34, 97.22, 149.73, 102.0, 110.99, 133.45, 85.29, 42.35, 102.67, 52.07, 73.58, 63.86, 102.37, 42.94, 59.73, 93.54</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_23.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_22.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_21.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_20.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_19.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_18.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_17.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_3hr_16.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_25.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_22.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_20.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_17.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_15.0</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_24.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_23.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_22.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_21.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_20.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_19.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_18.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_17.0_12.5</t>
+  </si>
+  <si>
+    <t>lowIncome_peakRed_16.0_12.5</t>
   </si>
 </sst>
 </file>
@@ -663,15 +1443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63D5626-2FB8-4154-A8B9-0FF9DADC0F94}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="48.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
@@ -683,7 +1463,7 @@
     <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -724,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -765,15 +1545,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>108</v>
@@ -785,15 +1565,15 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>108</v>
@@ -805,15 +1585,15 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>117</v>
@@ -825,15 +1605,15 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>117</v>
@@ -845,15 +1625,15 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>126</v>
@@ -865,15 +1645,15 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>135</v>
@@ -885,15 +1665,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>144</v>
@@ -905,15 +1685,15 @@
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>153</v>
@@ -925,15 +1705,15 @@
         <v>860</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>162</v>
@@ -945,15 +1725,15 @@
         <v>780</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>171</v>
@@ -965,15 +1745,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>180</v>
@@ -985,15 +1765,15 @@
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>198</v>
@@ -1005,15 +1785,15 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>216</v>
@@ -1025,15 +1805,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>234</v>
@@ -1045,15 +1825,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>252</v>
@@ -1065,15 +1845,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>288</v>
@@ -1085,15 +1865,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>108</v>
@@ -1105,15 +1885,15 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>108</v>
@@ -1125,15 +1905,15 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>117</v>
@@ -1145,15 +1925,15 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>117</v>
@@ -1165,15 +1945,15 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -1185,15 +1965,15 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>135</v>
@@ -1205,15 +1985,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>144</v>
@@ -1225,15 +2005,15 @@
         <v>930</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>153</v>
@@ -1245,15 +2025,15 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -1265,15 +2045,15 @@
         <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>171</v>
@@ -1285,15 +2065,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>180</v>
@@ -1305,15 +2085,15 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>198</v>
@@ -1325,15 +2105,15 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>216</v>
@@ -1345,15 +2125,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>234</v>
@@ -1365,15 +2145,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>252</v>
@@ -1385,15 +2165,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>288</v>
@@ -1405,15 +2185,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>108</v>
@@ -1422,38 +2202,38 @@
         <v>120</v>
       </c>
       <c r="F35">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E36">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F36">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>117</v>
@@ -1462,78 +2242,78 @@
         <v>130</v>
       </c>
       <c r="F37">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
         <v>126</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>140</v>
       </c>
-      <c r="F38">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
+      <c r="F39">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
         <v>135</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>150</v>
       </c>
-      <c r="F39">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>144</v>
-      </c>
-      <c r="E40">
-        <v>160</v>
-      </c>
       <c r="F40">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>144</v>
@@ -1542,18 +2322,18 @@
         <v>160</v>
       </c>
       <c r="F41">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>153</v>
@@ -1562,18 +2342,18 @@
         <v>170</v>
       </c>
       <c r="F42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>162</v>
@@ -1582,186 +2362,5186 @@
         <v>180</v>
       </c>
       <c r="F43">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>171</v>
+      </c>
+      <c r="E44">
+        <v>190</v>
+      </c>
+      <c r="F44">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>180</v>
+      </c>
+      <c r="E45">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>198</v>
+      </c>
+      <c r="E46">
+        <v>220</v>
+      </c>
+      <c r="F46">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>216</v>
+      </c>
+      <c r="E47">
+        <v>240</v>
+      </c>
+      <c r="F47">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>234</v>
+      </c>
+      <c r="E48">
+        <v>260</v>
+      </c>
+      <c r="F48">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>252</v>
+      </c>
+      <c r="E49">
+        <v>280</v>
+      </c>
+      <c r="F49">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>288</v>
+      </c>
+      <c r="E50">
+        <v>320</v>
+      </c>
+      <c r="F50">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>108</v>
+      </c>
+      <c r="E51">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44">
+      <c r="F51">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
         <v>108</v>
       </c>
-      <c r="E44">
+      <c r="E52">
         <v>120</v>
       </c>
-      <c r="F44">
+      <c r="F52">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>117</v>
+      </c>
+      <c r="E53">
+        <v>130</v>
+      </c>
+      <c r="F53">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>117</v>
+      </c>
+      <c r="E54">
+        <v>130</v>
+      </c>
+      <c r="F54">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>126</v>
+      </c>
+      <c r="E55">
+        <v>140</v>
+      </c>
+      <c r="F55">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>135</v>
+      </c>
+      <c r="E56">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>144</v>
+      </c>
+      <c r="E57">
+        <v>160</v>
+      </c>
+      <c r="F57">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>153</v>
+      </c>
+      <c r="E58">
+        <v>170</v>
+      </c>
+      <c r="F58">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>162</v>
+      </c>
+      <c r="E59">
+        <v>180</v>
+      </c>
+      <c r="F59">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>171</v>
+      </c>
+      <c r="E60">
+        <v>190</v>
+      </c>
+      <c r="F60">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>180</v>
+      </c>
+      <c r="E61">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>198</v>
+      </c>
+      <c r="E62">
+        <v>220</v>
+      </c>
+      <c r="F62">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>216</v>
+      </c>
+      <c r="E63">
+        <v>240</v>
+      </c>
+      <c r="F63">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>234</v>
+      </c>
+      <c r="E64">
+        <v>260</v>
+      </c>
+      <c r="F64">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <v>280</v>
+      </c>
+      <c r="F65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>288</v>
+      </c>
+      <c r="E66">
+        <v>320</v>
+      </c>
+      <c r="F66">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>108</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>108</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>117</v>
+      </c>
+      <c r="E69">
+        <v>130</v>
+      </c>
+      <c r="F69">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70">
+        <v>117</v>
+      </c>
+      <c r="E70">
+        <v>130</v>
+      </c>
+      <c r="F70">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>126</v>
+      </c>
+      <c r="E71">
+        <v>140</v>
+      </c>
+      <c r="F71">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>135</v>
+      </c>
+      <c r="E72">
+        <v>150</v>
+      </c>
+      <c r="F72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73">
+        <v>144</v>
+      </c>
+      <c r="E73">
+        <v>160</v>
+      </c>
+      <c r="F73">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>153</v>
+      </c>
+      <c r="E74">
+        <v>170</v>
+      </c>
+      <c r="F74">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <v>162</v>
+      </c>
+      <c r="E75">
+        <v>180</v>
+      </c>
+      <c r="F75">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>171</v>
+      </c>
+      <c r="E76">
+        <v>190</v>
+      </c>
+      <c r="F76">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>180</v>
+      </c>
+      <c r="E77">
+        <v>200</v>
+      </c>
+      <c r="F77">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>198</v>
+      </c>
+      <c r="E78">
+        <v>220</v>
+      </c>
+      <c r="F78">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>216</v>
+      </c>
+      <c r="E79">
+        <v>240</v>
+      </c>
+      <c r="F79">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>234</v>
+      </c>
+      <c r="E80">
+        <v>260</v>
+      </c>
+      <c r="F80">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>252</v>
+      </c>
+      <c r="E81">
+        <v>280</v>
+      </c>
+      <c r="F81">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>288</v>
+      </c>
+      <c r="E82">
+        <v>320</v>
+      </c>
+      <c r="F82">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>108</v>
+      </c>
+      <c r="E83">
+        <v>120</v>
+      </c>
+      <c r="F83">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>108</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+      <c r="F84">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>117</v>
+      </c>
+      <c r="E85">
+        <v>130</v>
+      </c>
+      <c r="F85">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>117</v>
+      </c>
+      <c r="E86">
+        <v>130</v>
+      </c>
+      <c r="F86">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>126</v>
+      </c>
+      <c r="E87">
+        <v>140</v>
+      </c>
+      <c r="F87">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88">
+        <v>135</v>
+      </c>
+      <c r="E88">
+        <v>150</v>
+      </c>
+      <c r="F88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A89" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <v>144</v>
+      </c>
+      <c r="E89">
+        <v>160</v>
+      </c>
+      <c r="F89">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90">
+        <v>153</v>
+      </c>
+      <c r="E90">
+        <v>170</v>
+      </c>
+      <c r="F90">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A91" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>162</v>
+      </c>
+      <c r="E91">
+        <v>180</v>
+      </c>
+      <c r="F91">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>171</v>
+      </c>
+      <c r="E92">
+        <v>190</v>
+      </c>
+      <c r="F92">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A93" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>180</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>198</v>
+      </c>
+      <c r="E94">
+        <v>220</v>
+      </c>
+      <c r="F94">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95">
+        <v>216</v>
+      </c>
+      <c r="E95">
+        <v>240</v>
+      </c>
+      <c r="F95">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>234</v>
+      </c>
+      <c r="E96">
+        <v>260</v>
+      </c>
+      <c r="F96">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A97" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97">
+        <v>252</v>
+      </c>
+      <c r="E97">
+        <v>280</v>
+      </c>
+      <c r="F97">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A98" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98">
+        <v>288</v>
+      </c>
+      <c r="E98">
+        <v>320</v>
+      </c>
+      <c r="F98">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99">
+        <v>108</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100">
+        <v>108</v>
+      </c>
+      <c r="E100">
+        <v>120</v>
+      </c>
+      <c r="F100">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A101" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>117</v>
+      </c>
+      <c r="E101">
+        <v>130</v>
+      </c>
+      <c r="F101">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>130</v>
+      </c>
+      <c r="F102">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103">
+        <v>126</v>
+      </c>
+      <c r="E103">
+        <v>140</v>
+      </c>
+      <c r="F103">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>135</v>
+      </c>
+      <c r="E104">
+        <v>150</v>
+      </c>
+      <c r="F104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>144</v>
+      </c>
+      <c r="E105">
+        <v>160</v>
+      </c>
+      <c r="F105">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106">
+        <v>153</v>
+      </c>
+      <c r="E106">
+        <v>170</v>
+      </c>
+      <c r="F106">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>162</v>
+      </c>
+      <c r="E107">
+        <v>180</v>
+      </c>
+      <c r="F107">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>171</v>
+      </c>
+      <c r="E108">
+        <v>190</v>
+      </c>
+      <c r="F108">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109">
+        <v>180</v>
+      </c>
+      <c r="E109">
+        <v>200</v>
+      </c>
+      <c r="F109">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110">
+        <v>198</v>
+      </c>
+      <c r="E110">
+        <v>220</v>
+      </c>
+      <c r="F110">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A111" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>216</v>
+      </c>
+      <c r="E111">
+        <v>240</v>
+      </c>
+      <c r="F111">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112">
+        <v>234</v>
+      </c>
+      <c r="E112">
+        <v>260</v>
+      </c>
+      <c r="F112">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113">
+        <v>252</v>
+      </c>
+      <c r="E113">
+        <v>280</v>
+      </c>
+      <c r="F113">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114">
+        <v>288</v>
+      </c>
+      <c r="E114">
+        <v>320</v>
+      </c>
+      <c r="F114">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A115" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115">
+        <v>108</v>
+      </c>
+      <c r="E115">
+        <v>120</v>
+      </c>
+      <c r="F115">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>108</v>
+      </c>
+      <c r="E116">
+        <v>120</v>
+      </c>
+      <c r="F116">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A117" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>117</v>
+      </c>
+      <c r="E117">
+        <v>130</v>
+      </c>
+      <c r="F117">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A118" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>130</v>
+      </c>
+      <c r="F118">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119">
+        <v>126</v>
+      </c>
+      <c r="E119">
+        <v>140</v>
+      </c>
+      <c r="F119">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A120" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120">
+        <v>135</v>
+      </c>
+      <c r="E120">
+        <v>150</v>
+      </c>
+      <c r="F120">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A121" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>144</v>
+      </c>
+      <c r="E121">
+        <v>160</v>
+      </c>
+      <c r="F121">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A122" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>153</v>
+      </c>
+      <c r="E122">
+        <v>170</v>
+      </c>
+      <c r="F122">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A123" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123">
+        <v>162</v>
+      </c>
+      <c r="E123">
+        <v>180</v>
+      </c>
+      <c r="F123">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A124" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124">
+        <v>171</v>
+      </c>
+      <c r="E124">
+        <v>190</v>
+      </c>
+      <c r="F124">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A125" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125">
+        <v>180</v>
+      </c>
+      <c r="E125">
+        <v>200</v>
+      </c>
+      <c r="F125">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A126" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126">
+        <v>198</v>
+      </c>
+      <c r="E126">
+        <v>220</v>
+      </c>
+      <c r="F126">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A127" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127">
+        <v>216</v>
+      </c>
+      <c r="E127">
+        <v>240</v>
+      </c>
+      <c r="F127">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A128" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128">
+        <v>234</v>
+      </c>
+      <c r="E128">
+        <v>260</v>
+      </c>
+      <c r="F128">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A129" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129">
+        <v>252</v>
+      </c>
+      <c r="E129">
+        <v>280</v>
+      </c>
+      <c r="F129">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A130" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130">
+        <v>288</v>
+      </c>
+      <c r="E130">
+        <v>320</v>
+      </c>
+      <c r="F130">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A131" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131">
+        <v>108</v>
+      </c>
+      <c r="E131">
+        <v>120</v>
+      </c>
+      <c r="F131">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A132" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132">
+        <v>108</v>
+      </c>
+      <c r="E132">
+        <v>120</v>
+      </c>
+      <c r="F132">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A133" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133">
+        <v>117</v>
+      </c>
+      <c r="E133">
+        <v>130</v>
+      </c>
+      <c r="F133">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A134" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134">
+        <v>117</v>
+      </c>
+      <c r="E134">
+        <v>130</v>
+      </c>
+      <c r="F134">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135">
+        <v>126</v>
+      </c>
+      <c r="E135">
+        <v>140</v>
+      </c>
+      <c r="F135">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A136" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136">
+        <v>135</v>
+      </c>
+      <c r="E136">
+        <v>150</v>
+      </c>
+      <c r="F136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A137" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>160</v>
+      </c>
+      <c r="F137">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A138" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <v>153</v>
+      </c>
+      <c r="E138">
+        <v>170</v>
+      </c>
+      <c r="F138">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A139" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139">
+        <v>162</v>
+      </c>
+      <c r="E139">
+        <v>180</v>
+      </c>
+      <c r="F139">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A140" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140">
+        <v>171</v>
+      </c>
+      <c r="E140">
+        <v>190</v>
+      </c>
+      <c r="F140">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A141" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141">
+        <v>180</v>
+      </c>
+      <c r="E141">
+        <v>200</v>
+      </c>
+      <c r="F141">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A142" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142">
+        <v>198</v>
+      </c>
+      <c r="E142">
+        <v>220</v>
+      </c>
+      <c r="F142">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A143" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143">
+        <v>216</v>
+      </c>
+      <c r="E143">
+        <v>240</v>
+      </c>
+      <c r="F143">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A144" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144">
+        <v>234</v>
+      </c>
+      <c r="E144">
+        <v>260</v>
+      </c>
+      <c r="F144">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A145" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>252</v>
+      </c>
+      <c r="E145">
+        <v>280</v>
+      </c>
+      <c r="F145">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A146" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146">
+        <v>288</v>
+      </c>
+      <c r="E146">
+        <v>320</v>
+      </c>
+      <c r="F146">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A147" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147">
+        <v>108</v>
+      </c>
+      <c r="E147">
+        <v>120</v>
+      </c>
+      <c r="F147">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A148" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148">
+        <v>108</v>
+      </c>
+      <c r="E148">
+        <v>120</v>
+      </c>
+      <c r="F148">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149">
+        <v>117</v>
+      </c>
+      <c r="E149">
+        <v>130</v>
+      </c>
+      <c r="F149">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A150" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150">
+        <v>117</v>
+      </c>
+      <c r="E150">
+        <v>130</v>
+      </c>
+      <c r="F150">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A151" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151">
+        <v>126</v>
+      </c>
+      <c r="E151">
+        <v>140</v>
+      </c>
+      <c r="F151">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A152" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152">
+        <v>135</v>
+      </c>
+      <c r="E152">
+        <v>150</v>
+      </c>
+      <c r="F152">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A153" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D153">
+        <v>144</v>
+      </c>
+      <c r="E153">
+        <v>160</v>
+      </c>
+      <c r="F153">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A154" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154">
+        <v>153</v>
+      </c>
+      <c r="E154">
+        <v>170</v>
+      </c>
+      <c r="F154">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A155" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155">
+        <v>162</v>
+      </c>
+      <c r="E155">
+        <v>180</v>
+      </c>
+      <c r="F155">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A156" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156">
+        <v>171</v>
+      </c>
+      <c r="E156">
+        <v>190</v>
+      </c>
+      <c r="F156">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157">
+        <v>180</v>
+      </c>
+      <c r="E157">
+        <v>200</v>
+      </c>
+      <c r="F157">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A158" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158">
+        <v>198</v>
+      </c>
+      <c r="E158">
+        <v>220</v>
+      </c>
+      <c r="F158">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A159" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159">
+        <v>216</v>
+      </c>
+      <c r="E159">
+        <v>240</v>
+      </c>
+      <c r="F159">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A160" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160">
+        <v>234</v>
+      </c>
+      <c r="E160">
+        <v>260</v>
+      </c>
+      <c r="F160">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A161" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" t="s">
+        <v>81</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161">
+        <v>252</v>
+      </c>
+      <c r="E161">
+        <v>280</v>
+      </c>
+      <c r="F161">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A162" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B162" t="s">
+        <v>81</v>
+      </c>
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162">
+        <v>288</v>
+      </c>
+      <c r="E162">
+        <v>320</v>
+      </c>
+      <c r="F162">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A163" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163">
+        <v>108</v>
+      </c>
+      <c r="E163">
+        <v>120</v>
+      </c>
+      <c r="F163">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A164" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164">
+        <v>108</v>
+      </c>
+      <c r="E164">
+        <v>120</v>
+      </c>
+      <c r="F164">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A165" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165">
+        <v>117</v>
+      </c>
+      <c r="E165">
+        <v>130</v>
+      </c>
+      <c r="F165">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A166" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166">
+        <v>117</v>
+      </c>
+      <c r="E166">
+        <v>130</v>
+      </c>
+      <c r="F166">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A167" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167">
+        <v>126</v>
+      </c>
+      <c r="E167">
+        <v>140</v>
+      </c>
+      <c r="F167">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A168" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168">
+        <v>135</v>
+      </c>
+      <c r="E168">
+        <v>150</v>
+      </c>
+      <c r="F168">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A169" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169">
+        <v>144</v>
+      </c>
+      <c r="E169">
+        <v>160</v>
+      </c>
+      <c r="F169">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A170" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170">
+        <v>153</v>
+      </c>
+      <c r="E170">
+        <v>170</v>
+      </c>
+      <c r="F170">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A171" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171">
+        <v>162</v>
+      </c>
+      <c r="E171">
+        <v>180</v>
+      </c>
+      <c r="F171">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A172" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B172" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+      <c r="E172">
+        <v>190</v>
+      </c>
+      <c r="F172">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A173" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173">
+        <v>180</v>
+      </c>
+      <c r="E173">
+        <v>200</v>
+      </c>
+      <c r="F173">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A174" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B174" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <v>198</v>
+      </c>
+      <c r="E174">
+        <v>220</v>
+      </c>
+      <c r="F174">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A175" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175">
+        <v>216</v>
+      </c>
+      <c r="E175">
+        <v>240</v>
+      </c>
+      <c r="F175">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A176" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176">
+        <v>234</v>
+      </c>
+      <c r="E176">
+        <v>260</v>
+      </c>
+      <c r="F176">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A177" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177">
+        <v>252</v>
+      </c>
+      <c r="E177">
+        <v>280</v>
+      </c>
+      <c r="F177">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A178" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B178" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178">
+        <v>288</v>
+      </c>
+      <c r="E178">
+        <v>320</v>
+      </c>
+      <c r="F178">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A179" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" t="s">
+        <v>115</v>
+      </c>
+      <c r="C179" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179">
+        <v>108</v>
+      </c>
+      <c r="E179">
+        <v>120</v>
+      </c>
+      <c r="F179">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A180" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B180" t="s">
+        <v>115</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180">
+        <v>108</v>
+      </c>
+      <c r="E180">
+        <v>120</v>
+      </c>
+      <c r="F180">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A181" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B181" t="s">
+        <v>115</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181">
+        <v>117</v>
+      </c>
+      <c r="E181">
+        <v>130</v>
+      </c>
+      <c r="F181">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A182" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B182" t="s">
+        <v>115</v>
+      </c>
+      <c r="C182" t="s">
+        <v>29</v>
+      </c>
+      <c r="D182">
+        <v>117</v>
+      </c>
+      <c r="E182">
+        <v>130</v>
+      </c>
+      <c r="F182">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A183" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B183" t="s">
+        <v>115</v>
+      </c>
+      <c r="C183" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183">
+        <v>126</v>
+      </c>
+      <c r="E183">
+        <v>140</v>
+      </c>
+      <c r="F183">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A184" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B184" t="s">
+        <v>115</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184">
+        <v>135</v>
+      </c>
+      <c r="E184">
+        <v>150</v>
+      </c>
+      <c r="F184">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A185" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B185" t="s">
+        <v>115</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>144</v>
+      </c>
+      <c r="E185">
+        <v>160</v>
+      </c>
+      <c r="F185">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A186" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186">
+        <v>153</v>
+      </c>
+      <c r="E186">
+        <v>170</v>
+      </c>
+      <c r="F186">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A187" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" t="s">
+        <v>115</v>
+      </c>
+      <c r="C187" t="s">
+        <v>29</v>
+      </c>
+      <c r="D187">
+        <v>162</v>
+      </c>
+      <c r="E187">
+        <v>180</v>
+      </c>
+      <c r="F187">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A188" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" t="s">
+        <v>115</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188">
+        <v>171</v>
+      </c>
+      <c r="E188">
+        <v>190</v>
+      </c>
+      <c r="F188">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A189" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B189" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" t="s">
+        <v>29</v>
+      </c>
+      <c r="D189">
+        <v>180</v>
+      </c>
+      <c r="E189">
+        <v>200</v>
+      </c>
+      <c r="F189">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A190" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B190" t="s">
+        <v>115</v>
+      </c>
+      <c r="C190" t="s">
+        <v>29</v>
+      </c>
+      <c r="D190">
+        <v>198</v>
+      </c>
+      <c r="E190">
+        <v>220</v>
+      </c>
+      <c r="F190">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A191" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191" t="s">
+        <v>115</v>
+      </c>
+      <c r="C191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191">
+        <v>216</v>
+      </c>
+      <c r="E191">
+        <v>240</v>
+      </c>
+      <c r="F191">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A192" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" t="s">
+        <v>115</v>
+      </c>
+      <c r="C192" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192">
+        <v>234</v>
+      </c>
+      <c r="E192">
+        <v>260</v>
+      </c>
+      <c r="F192">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A193" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B193" t="s">
+        <v>115</v>
+      </c>
+      <c r="C193" t="s">
+        <v>29</v>
+      </c>
+      <c r="D193">
+        <v>252</v>
+      </c>
+      <c r="E193">
+        <v>280</v>
+      </c>
+      <c r="F193">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A194" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B194" t="s">
+        <v>115</v>
+      </c>
+      <c r="C194" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194">
+        <v>288</v>
+      </c>
+      <c r="E194">
+        <v>320</v>
+      </c>
+      <c r="F194">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A195" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195">
+        <v>108</v>
+      </c>
+      <c r="E195">
+        <v>120</v>
+      </c>
+      <c r="F195">
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A196" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196">
         <v>117</v>
       </c>
-      <c r="E45">
+      <c r="E196">
         <v>130</v>
       </c>
-      <c r="F45">
+      <c r="F196">
         <v>610</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A197" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197">
         <v>117</v>
       </c>
-      <c r="E46">
+      <c r="E197">
         <v>130</v>
       </c>
-      <c r="F46">
+      <c r="F197">
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A198" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198">
         <v>126</v>
       </c>
-      <c r="E47">
+      <c r="E198">
         <v>140</v>
       </c>
-      <c r="F47">
+      <c r="F198">
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A199" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199">
         <v>135</v>
       </c>
-      <c r="E48">
+      <c r="E199">
         <v>150</v>
       </c>
-      <c r="F48">
+      <c r="F199">
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A200" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200">
         <v>144</v>
       </c>
-      <c r="E49">
+      <c r="E200">
         <v>160</v>
       </c>
-      <c r="F49">
+      <c r="F200">
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A201" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201">
         <v>144</v>
       </c>
-      <c r="E50">
+      <c r="E201">
         <v>160</v>
       </c>
-      <c r="F50">
+      <c r="F201">
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A202" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" t="s">
+        <v>27</v>
+      </c>
+      <c r="D202">
         <v>153</v>
       </c>
-      <c r="E51">
+      <c r="E202">
         <v>170</v>
       </c>
-      <c r="F51">
+      <c r="F202">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A203" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" t="s">
+        <v>27</v>
+      </c>
+      <c r="D203">
         <v>162</v>
       </c>
-      <c r="E52">
+      <c r="E203">
         <v>180</v>
       </c>
-      <c r="F52">
+      <c r="F203">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A204" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B204" t="s">
+        <v>237</v>
+      </c>
+      <c r="C204" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204">
+        <v>108</v>
+      </c>
+      <c r="E204">
+        <v>120</v>
+      </c>
+      <c r="F204">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A205" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>117</v>
+      </c>
+      <c r="E205">
+        <v>130</v>
+      </c>
+      <c r="F205">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A206" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206">
+        <v>117</v>
+      </c>
+      <c r="E206">
+        <v>130</v>
+      </c>
+      <c r="F206">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A207" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" t="s">
+        <v>237</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207">
+        <v>126</v>
+      </c>
+      <c r="E207">
+        <v>140</v>
+      </c>
+      <c r="F207">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A208" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B208" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208">
+        <v>135</v>
+      </c>
+      <c r="E208">
+        <v>150</v>
+      </c>
+      <c r="F208">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A209" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B209" t="s">
+        <v>237</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>144</v>
+      </c>
+      <c r="E209">
+        <v>160</v>
+      </c>
+      <c r="F209">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A210" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B210" t="s">
+        <v>237</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210">
+        <v>144</v>
+      </c>
+      <c r="E210">
+        <v>160</v>
+      </c>
+      <c r="F210">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A211" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B211" t="s">
+        <v>237</v>
+      </c>
+      <c r="C211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211">
+        <v>153</v>
+      </c>
+      <c r="E211">
+        <v>170</v>
+      </c>
+      <c r="F211">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A212" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B212" t="s">
+        <v>237</v>
+      </c>
+      <c r="C212" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212">
+        <v>162</v>
+      </c>
+      <c r="E212">
+        <v>180</v>
+      </c>
+      <c r="F212">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A213" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213">
+        <v>108</v>
+      </c>
+      <c r="E213">
+        <v>120</v>
+      </c>
+      <c r="F213">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A214" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214">
+        <v>117</v>
+      </c>
+      <c r="E214">
+        <v>130</v>
+      </c>
+      <c r="F214">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A215" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B215" t="s">
+        <v>247</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215">
+        <v>117</v>
+      </c>
+      <c r="E215">
+        <v>130</v>
+      </c>
+      <c r="F215">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A216" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B216" t="s">
+        <v>247</v>
+      </c>
+      <c r="C216" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216">
+        <v>126</v>
+      </c>
+      <c r="E216">
+        <v>140</v>
+      </c>
+      <c r="F216">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A217" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B217" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217">
+        <v>135</v>
+      </c>
+      <c r="E217">
+        <v>150</v>
+      </c>
+      <c r="F217">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A218" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B218" t="s">
+        <v>247</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218">
+        <v>144</v>
+      </c>
+      <c r="E218">
+        <v>160</v>
+      </c>
+      <c r="F218">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A219" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B219" t="s">
+        <v>247</v>
+      </c>
+      <c r="C219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219">
+        <v>144</v>
+      </c>
+      <c r="E219">
+        <v>160</v>
+      </c>
+      <c r="F219">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A220" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" t="s">
+        <v>247</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220">
+        <v>153</v>
+      </c>
+      <c r="E220">
+        <v>170</v>
+      </c>
+      <c r="F220">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A221" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B221" t="s">
+        <v>247</v>
+      </c>
+      <c r="C221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221">
+        <v>162</v>
+      </c>
+      <c r="E221">
+        <v>180</v>
+      </c>
+      <c r="F221">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A222" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B222" t="s">
+        <v>257</v>
+      </c>
+      <c r="C222" t="s">
+        <v>27</v>
+      </c>
+      <c r="D222">
+        <v>108</v>
+      </c>
+      <c r="E222">
+        <v>120</v>
+      </c>
+      <c r="F222">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A223" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B223" t="s">
+        <v>257</v>
+      </c>
+      <c r="C223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <v>117</v>
+      </c>
+      <c r="E223">
+        <v>130</v>
+      </c>
+      <c r="F223">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A224" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B224" t="s">
+        <v>257</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224">
+        <v>117</v>
+      </c>
+      <c r="E224">
+        <v>130</v>
+      </c>
+      <c r="F224">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A225" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B225" t="s">
+        <v>257</v>
+      </c>
+      <c r="C225" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225">
+        <v>126</v>
+      </c>
+      <c r="E225">
+        <v>140</v>
+      </c>
+      <c r="F225">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A226" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B226" t="s">
+        <v>257</v>
+      </c>
+      <c r="C226" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226">
+        <v>135</v>
+      </c>
+      <c r="E226">
+        <v>150</v>
+      </c>
+      <c r="F226">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A227" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B227" t="s">
+        <v>257</v>
+      </c>
+      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227">
+        <v>144</v>
+      </c>
+      <c r="E227">
+        <v>160</v>
+      </c>
+      <c r="F227">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A228" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B228" t="s">
+        <v>257</v>
+      </c>
+      <c r="C228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228">
+        <v>144</v>
+      </c>
+      <c r="E228">
+        <v>160</v>
+      </c>
+      <c r="F228">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A229" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B229" t="s">
+        <v>257</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229">
+        <v>153</v>
+      </c>
+      <c r="E229">
+        <v>170</v>
+      </c>
+      <c r="F229">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A230" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B230" t="s">
+        <v>257</v>
+      </c>
+      <c r="C230" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230">
+        <v>162</v>
+      </c>
+      <c r="E230">
+        <v>180</v>
+      </c>
+      <c r="F230">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A231" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B231" t="s">
+        <v>267</v>
+      </c>
+      <c r="C231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231">
+        <v>108</v>
+      </c>
+      <c r="E231">
+        <v>120</v>
+      </c>
+      <c r="F231">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A232" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B232" t="s">
+        <v>267</v>
+      </c>
+      <c r="C232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232">
+        <v>117</v>
+      </c>
+      <c r="E232">
+        <v>130</v>
+      </c>
+      <c r="F232">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A233" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233" t="s">
+        <v>267</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233">
+        <v>117</v>
+      </c>
+      <c r="E233">
+        <v>130</v>
+      </c>
+      <c r="F233">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A234" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234" t="s">
+        <v>267</v>
+      </c>
+      <c r="C234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234">
+        <v>126</v>
+      </c>
+      <c r="E234">
+        <v>140</v>
+      </c>
+      <c r="F234">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A235" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B235" t="s">
+        <v>267</v>
+      </c>
+      <c r="C235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235">
+        <v>135</v>
+      </c>
+      <c r="E235">
+        <v>150</v>
+      </c>
+      <c r="F235">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A236" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" t="s">
+        <v>267</v>
+      </c>
+      <c r="C236" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236">
+        <v>144</v>
+      </c>
+      <c r="E236">
+        <v>160</v>
+      </c>
+      <c r="F236">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A237" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B237" t="s">
+        <v>267</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237">
+        <v>144</v>
+      </c>
+      <c r="E237">
+        <v>160</v>
+      </c>
+      <c r="F237">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A238" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B238" t="s">
+        <v>267</v>
+      </c>
+      <c r="C238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D238">
+        <v>153</v>
+      </c>
+      <c r="E238">
+        <v>170</v>
+      </c>
+      <c r="F238">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A239" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B239" t="s">
+        <v>267</v>
+      </c>
+      <c r="C239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <v>162</v>
+      </c>
+      <c r="E239">
+        <v>180</v>
+      </c>
+      <c r="F239">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A240" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B240" t="s">
+        <v>277</v>
+      </c>
+      <c r="C240" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240">
+        <v>108</v>
+      </c>
+      <c r="E240">
+        <v>120</v>
+      </c>
+      <c r="F240">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A241" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B241" t="s">
+        <v>277</v>
+      </c>
+      <c r="C241" t="s">
+        <v>27</v>
+      </c>
+      <c r="D241">
+        <v>117</v>
+      </c>
+      <c r="E241">
+        <v>130</v>
+      </c>
+      <c r="F241">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A242" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B242" t="s">
+        <v>277</v>
+      </c>
+      <c r="C242" t="s">
+        <v>27</v>
+      </c>
+      <c r="D242">
+        <v>117</v>
+      </c>
+      <c r="E242">
+        <v>130</v>
+      </c>
+      <c r="F242">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A243" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B243" t="s">
+        <v>277</v>
+      </c>
+      <c r="C243" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243">
+        <v>126</v>
+      </c>
+      <c r="E243">
+        <v>140</v>
+      </c>
+      <c r="F243">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A244" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B244" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244">
+        <v>135</v>
+      </c>
+      <c r="E244">
+        <v>150</v>
+      </c>
+      <c r="F244">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A245" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B245" t="s">
+        <v>277</v>
+      </c>
+      <c r="C245" t="s">
+        <v>27</v>
+      </c>
+      <c r="D245">
+        <v>144</v>
+      </c>
+      <c r="E245">
+        <v>160</v>
+      </c>
+      <c r="F245">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A246" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B246" t="s">
+        <v>277</v>
+      </c>
+      <c r="C246" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246">
+        <v>144</v>
+      </c>
+      <c r="E246">
+        <v>160</v>
+      </c>
+      <c r="F246">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A247" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B247" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>153</v>
+      </c>
+      <c r="E247">
+        <v>170</v>
+      </c>
+      <c r="F247">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A248" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B248" t="s">
+        <v>277</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248">
+        <v>162</v>
+      </c>
+      <c r="E248">
+        <v>180</v>
+      </c>
+      <c r="F248">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A249" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249" t="s">
+        <v>29</v>
+      </c>
+      <c r="D249">
+        <v>108</v>
+      </c>
+      <c r="E249">
+        <v>120</v>
+      </c>
+      <c r="F249">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A250" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B250" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <v>117</v>
+      </c>
+      <c r="E250">
+        <v>130</v>
+      </c>
+      <c r="F250">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A251" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B251" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251">
+        <v>117</v>
+      </c>
+      <c r="E251">
+        <v>130</v>
+      </c>
+      <c r="F251">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A252" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B252" t="s">
+        <v>28</v>
+      </c>
+      <c r="C252" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252">
+        <v>126</v>
+      </c>
+      <c r="E252">
+        <v>140</v>
+      </c>
+      <c r="F252">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A253" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B253" t="s">
+        <v>28</v>
+      </c>
+      <c r="C253" t="s">
+        <v>29</v>
+      </c>
+      <c r="D253">
+        <v>135</v>
+      </c>
+      <c r="E253">
+        <v>150</v>
+      </c>
+      <c r="F253">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A254" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B254" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254">
+        <v>144</v>
+      </c>
+      <c r="E254">
+        <v>160</v>
+      </c>
+      <c r="F254">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A255" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B255" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255" t="s">
+        <v>29</v>
+      </c>
+      <c r="D255">
+        <v>144</v>
+      </c>
+      <c r="E255">
+        <v>160</v>
+      </c>
+      <c r="F255">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A256" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B256" t="s">
+        <v>28</v>
+      </c>
+      <c r="C256" t="s">
+        <v>29</v>
+      </c>
+      <c r="D256">
+        <v>153</v>
+      </c>
+      <c r="E256">
+        <v>170</v>
+      </c>
+      <c r="F256">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A257" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B257" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257" t="s">
+        <v>29</v>
+      </c>
+      <c r="D257">
+        <v>162</v>
+      </c>
+      <c r="E257">
+        <v>180</v>
+      </c>
+      <c r="F257">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A258" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B258" t="s">
+        <v>237</v>
+      </c>
+      <c r="C258" t="s">
+        <v>29</v>
+      </c>
+      <c r="D258">
+        <v>108</v>
+      </c>
+      <c r="E258">
+        <v>120</v>
+      </c>
+      <c r="F258">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A259" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B259" t="s">
+        <v>237</v>
+      </c>
+      <c r="C259" t="s">
+        <v>29</v>
+      </c>
+      <c r="D259">
+        <v>117</v>
+      </c>
+      <c r="E259">
+        <v>130</v>
+      </c>
+      <c r="F259">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A260" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260" t="s">
+        <v>237</v>
+      </c>
+      <c r="C260" t="s">
+        <v>29</v>
+      </c>
+      <c r="D260">
+        <v>117</v>
+      </c>
+      <c r="E260">
+        <v>130</v>
+      </c>
+      <c r="F260">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A261" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B261" t="s">
+        <v>237</v>
+      </c>
+      <c r="C261" t="s">
+        <v>29</v>
+      </c>
+      <c r="D261">
+        <v>126</v>
+      </c>
+      <c r="E261">
+        <v>140</v>
+      </c>
+      <c r="F261">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A262" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B262" t="s">
+        <v>237</v>
+      </c>
+      <c r="C262" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262">
+        <v>135</v>
+      </c>
+      <c r="E262">
+        <v>150</v>
+      </c>
+      <c r="F262">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A263" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B263" t="s">
+        <v>237</v>
+      </c>
+      <c r="C263" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263">
+        <v>144</v>
+      </c>
+      <c r="E263">
+        <v>160</v>
+      </c>
+      <c r="F263">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A264" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B264" t="s">
+        <v>237</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264">
+        <v>144</v>
+      </c>
+      <c r="E264">
+        <v>160</v>
+      </c>
+      <c r="F264">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A265" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B265" t="s">
+        <v>237</v>
+      </c>
+      <c r="C265" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265">
+        <v>153</v>
+      </c>
+      <c r="E265">
+        <v>170</v>
+      </c>
+      <c r="F265">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A266" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B266" t="s">
+        <v>237</v>
+      </c>
+      <c r="C266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266">
+        <v>162</v>
+      </c>
+      <c r="E266">
+        <v>180</v>
+      </c>
+      <c r="F266">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A267" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B267" t="s">
+        <v>247</v>
+      </c>
+      <c r="C267" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267">
+        <v>108</v>
+      </c>
+      <c r="E267">
+        <v>120</v>
+      </c>
+      <c r="F267">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A268" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B268" t="s">
+        <v>247</v>
+      </c>
+      <c r="C268" t="s">
+        <v>29</v>
+      </c>
+      <c r="D268">
+        <v>117</v>
+      </c>
+      <c r="E268">
+        <v>130</v>
+      </c>
+      <c r="F268">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A269" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B269" t="s">
+        <v>247</v>
+      </c>
+      <c r="C269" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269">
+        <v>117</v>
+      </c>
+      <c r="E269">
+        <v>130</v>
+      </c>
+      <c r="F269">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A270" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C270" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270">
+        <v>126</v>
+      </c>
+      <c r="E270">
+        <v>140</v>
+      </c>
+      <c r="F270">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A271" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B271" t="s">
+        <v>247</v>
+      </c>
+      <c r="C271" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271">
+        <v>135</v>
+      </c>
+      <c r="E271">
+        <v>150</v>
+      </c>
+      <c r="F271">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A272" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C272" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272">
+        <v>144</v>
+      </c>
+      <c r="E272">
+        <v>160</v>
+      </c>
+      <c r="F272">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A273" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B273" t="s">
+        <v>247</v>
+      </c>
+      <c r="C273" t="s">
+        <v>29</v>
+      </c>
+      <c r="D273">
+        <v>144</v>
+      </c>
+      <c r="E273">
+        <v>160</v>
+      </c>
+      <c r="F273">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A274" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C274" t="s">
+        <v>29</v>
+      </c>
+      <c r="D274">
+        <v>153</v>
+      </c>
+      <c r="E274">
+        <v>170</v>
+      </c>
+      <c r="F274">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A275" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B275" t="s">
+        <v>247</v>
+      </c>
+      <c r="C275" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275">
+        <v>162</v>
+      </c>
+      <c r="E275">
+        <v>180</v>
+      </c>
+      <c r="F275">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A276" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B276" t="s">
+        <v>257</v>
+      </c>
+      <c r="C276" t="s">
+        <v>29</v>
+      </c>
+      <c r="D276">
+        <v>108</v>
+      </c>
+      <c r="E276">
+        <v>120</v>
+      </c>
+      <c r="F276">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A277" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B277" t="s">
+        <v>257</v>
+      </c>
+      <c r="C277" t="s">
+        <v>29</v>
+      </c>
+      <c r="D277">
+        <v>117</v>
+      </c>
+      <c r="E277">
+        <v>130</v>
+      </c>
+      <c r="F277">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A278" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C278" t="s">
+        <v>29</v>
+      </c>
+      <c r="D278">
+        <v>117</v>
+      </c>
+      <c r="E278">
+        <v>130</v>
+      </c>
+      <c r="F278">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A279" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279">
+        <v>126</v>
+      </c>
+      <c r="E279">
+        <v>140</v>
+      </c>
+      <c r="F279">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A280" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B280" t="s">
+        <v>257</v>
+      </c>
+      <c r="C280" t="s">
+        <v>29</v>
+      </c>
+      <c r="D280">
+        <v>135</v>
+      </c>
+      <c r="E280">
+        <v>150</v>
+      </c>
+      <c r="F280">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A281" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B281" t="s">
+        <v>257</v>
+      </c>
+      <c r="C281" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281">
+        <v>144</v>
+      </c>
+      <c r="E281">
+        <v>160</v>
+      </c>
+      <c r="F281">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A282" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B282" t="s">
+        <v>257</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>144</v>
+      </c>
+      <c r="E282">
+        <v>160</v>
+      </c>
+      <c r="F282">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A283" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B283" t="s">
+        <v>257</v>
+      </c>
+      <c r="C283" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283">
+        <v>153</v>
+      </c>
+      <c r="E283">
+        <v>170</v>
+      </c>
+      <c r="F283">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A284" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B284" t="s">
+        <v>257</v>
+      </c>
+      <c r="C284" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284">
+        <v>162</v>
+      </c>
+      <c r="E284">
+        <v>180</v>
+      </c>
+      <c r="F284">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A285" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B285" t="s">
+        <v>267</v>
+      </c>
+      <c r="C285" t="s">
+        <v>29</v>
+      </c>
+      <c r="D285">
+        <v>108</v>
+      </c>
+      <c r="E285">
+        <v>120</v>
+      </c>
+      <c r="F285">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A286" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B286" t="s">
+        <v>267</v>
+      </c>
+      <c r="C286" t="s">
+        <v>29</v>
+      </c>
+      <c r="D286">
+        <v>117</v>
+      </c>
+      <c r="E286">
+        <v>130</v>
+      </c>
+      <c r="F286">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A287" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B287" t="s">
+        <v>267</v>
+      </c>
+      <c r="C287" t="s">
+        <v>29</v>
+      </c>
+      <c r="D287">
+        <v>117</v>
+      </c>
+      <c r="E287">
+        <v>130</v>
+      </c>
+      <c r="F287">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A288" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B288" t="s">
+        <v>267</v>
+      </c>
+      <c r="C288" t="s">
+        <v>29</v>
+      </c>
+      <c r="D288">
+        <v>126</v>
+      </c>
+      <c r="E288">
+        <v>140</v>
+      </c>
+      <c r="F288">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A289" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B289" t="s">
+        <v>267</v>
+      </c>
+      <c r="C289" t="s">
+        <v>29</v>
+      </c>
+      <c r="D289">
+        <v>135</v>
+      </c>
+      <c r="E289">
+        <v>150</v>
+      </c>
+      <c r="F289">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A290" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B290" t="s">
+        <v>267</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290">
+        <v>144</v>
+      </c>
+      <c r="E290">
+        <v>160</v>
+      </c>
+      <c r="F290">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A291" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B291" t="s">
+        <v>267</v>
+      </c>
+      <c r="C291" t="s">
+        <v>29</v>
+      </c>
+      <c r="D291">
+        <v>144</v>
+      </c>
+      <c r="E291">
+        <v>160</v>
+      </c>
+      <c r="F291">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A292" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B292" t="s">
+        <v>267</v>
+      </c>
+      <c r="C292" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292">
+        <v>153</v>
+      </c>
+      <c r="E292">
+        <v>170</v>
+      </c>
+      <c r="F292">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A293" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B293" t="s">
+        <v>267</v>
+      </c>
+      <c r="C293" t="s">
+        <v>29</v>
+      </c>
+      <c r="D293">
+        <v>162</v>
+      </c>
+      <c r="E293">
+        <v>180</v>
+      </c>
+      <c r="F293">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A294" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B294" t="s">
+        <v>277</v>
+      </c>
+      <c r="C294" t="s">
+        <v>29</v>
+      </c>
+      <c r="D294">
+        <v>108</v>
+      </c>
+      <c r="E294">
+        <v>120</v>
+      </c>
+      <c r="F294">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A295" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B295" t="s">
+        <v>277</v>
+      </c>
+      <c r="C295" t="s">
+        <v>29</v>
+      </c>
+      <c r="D295">
+        <v>117</v>
+      </c>
+      <c r="E295">
+        <v>130</v>
+      </c>
+      <c r="F295">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A296" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B296" t="s">
+        <v>277</v>
+      </c>
+      <c r="C296" t="s">
+        <v>29</v>
+      </c>
+      <c r="D296">
+        <v>117</v>
+      </c>
+      <c r="E296">
+        <v>130</v>
+      </c>
+      <c r="F296">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A297" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B297" t="s">
+        <v>277</v>
+      </c>
+      <c r="C297" t="s">
+        <v>29</v>
+      </c>
+      <c r="D297">
+        <v>126</v>
+      </c>
+      <c r="E297">
+        <v>140</v>
+      </c>
+      <c r="F297">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A298" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B298" t="s">
+        <v>277</v>
+      </c>
+      <c r="C298" t="s">
+        <v>29</v>
+      </c>
+      <c r="D298">
+        <v>135</v>
+      </c>
+      <c r="E298">
+        <v>150</v>
+      </c>
+      <c r="F298">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A299" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B299" t="s">
+        <v>277</v>
+      </c>
+      <c r="C299" t="s">
+        <v>29</v>
+      </c>
+      <c r="D299">
+        <v>144</v>
+      </c>
+      <c r="E299">
+        <v>160</v>
+      </c>
+      <c r="F299">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A300" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B300" t="s">
+        <v>277</v>
+      </c>
+      <c r="C300" t="s">
+        <v>29</v>
+      </c>
+      <c r="D300">
+        <v>144</v>
+      </c>
+      <c r="E300">
+        <v>160</v>
+      </c>
+      <c r="F300">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A301" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B301" t="s">
+        <v>277</v>
+      </c>
+      <c r="C301" t="s">
+        <v>29</v>
+      </c>
+      <c r="D301">
+        <v>153</v>
+      </c>
+      <c r="E301">
+        <v>170</v>
+      </c>
+      <c r="F301">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A302" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B302" t="s">
+        <v>277</v>
+      </c>
+      <c r="C302" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302">
+        <v>162</v>
+      </c>
+      <c r="E302">
+        <v>180</v>
+      </c>
+      <c r="F302">
         <v>120</v>
       </c>
     </row>
